--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beni1\PycharmProjects\music_genre_classifier2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B0FDE-CC91-443D-AAD5-E015C47FC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B9C3DA-47BE-44A9-A1EE-16150C22E0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{552948E6-CF0C-4BCC-A315-73430329449C}"/>
   </bookViews>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Önlab 1. vége</t>
   </si>
   <si>
-    <t>31 epoch</t>
-  </si>
-  <si>
     <t>Epochs</t>
   </si>
   <si>
@@ -76,14 +73,14 @@
     <t>5 sec spectogram</t>
   </si>
   <si>
-    <t>35 epoch</t>
+    <t>6 sec spectogram 3s overlap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +101,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,6 +155,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA2AE8E-AE2F-4382-B4BB-C6E3DEFAABEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9496425" y="1295400"/>
+          <a:ext cx="6096000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E647DC-9E3D-498E-8C48-CFBDE0A3E9E3}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -471,34 +523,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -508,8 +560,8 @@
       <c r="B3">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
+      <c r="C3">
+        <v>31</v>
       </c>
       <c r="D3" s="1">
         <v>0.99760000000000004</v>
@@ -530,18 +582,18 @@
         <v>4.38</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4">
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>0.98760000000000003</v>
@@ -562,15 +614,50 @@
         <v>2.15</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3">
+        <v>26.71</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{B4F620D9-CEF9-427F-BCAB-E813F45D7A73}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{C598FD07-4AF6-4D81-A485-B453751A0D49}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{274BE8D3-CAED-4B72-A627-60F8E58A5E10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>